--- a/Examples/Scissor lift/BOM/BOM.xlsx
+++ b/Examples/Scissor lift/BOM/BOM.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Quantity</t>
   </si>
@@ -55,35 +55,85 @@
     <t>Vendor Part No.</t>
   </si>
   <si>
-    <t>Oil Impregnated Bushing</t>
-  </si>
-  <si>
-    <t>Flanged</t>
-  </si>
-  <si>
-    <t>McMaster-Carr</t>
-  </si>
-  <si>
-    <t>Avalable</t>
-  </si>
-  <si>
-    <t>1677K8</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/#1677k8/=1b423mo</t>
+    <t>https://www.mcmaster.com/#90295A492</t>
+  </si>
+  <si>
+    <t>1(100pk)</t>
+  </si>
+  <si>
+    <t>nylon washer</t>
+  </si>
+  <si>
+    <t>McMasterCarr</t>
+  </si>
+  <si>
+    <t>90295A492</t>
+  </si>
+  <si>
+    <t>Bronze oil impreg. Bushing</t>
+  </si>
+  <si>
+    <t>Socket head bolt 10-32</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/#6338K417</t>
+  </si>
+  <si>
+    <t>6338K417</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/#91251A350</t>
+  </si>
+  <si>
+    <t>91251A350</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/#91259A705</t>
+  </si>
+  <si>
+    <t>Shoulder bolt 1/2in x 3/8ths shoulder</t>
+  </si>
+  <si>
+    <t>Bolt</t>
+  </si>
+  <si>
+    <t>Bushing</t>
+  </si>
+  <si>
+    <t>Washer</t>
+  </si>
+  <si>
+    <t>91259A705</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>3/8ths nut</t>
+  </si>
+  <si>
+    <t>Nut</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,17 +156,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -208,6 +261,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -243,6 +313,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,11 +505,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,42 +567,110 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
+      <c r="A2" t="s">
+        <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1">
+        <v>6.16</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1.64</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I3" s="1"/>
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4.47</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I4" s="1"/>
-      <c r="M4" s="2"/>
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I5" s="1"/>
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -525,6 +680,12 @@
       <c r="I8" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J4" r:id="rId1" location="91251A350" xr:uid="{E3CA1088-6DD3-4F73-979E-0192747F353E}"/>
+    <hyperlink ref="J3" r:id="rId2" location="6338K417" xr:uid="{A0630CDE-3F06-48D5-890D-FA335B9468BC}"/>
+    <hyperlink ref="J2" r:id="rId3" location="90295A492" xr:uid="{E6CD0037-EEFA-4B11-8DE2-5CB0110D04EF}"/>
+    <hyperlink ref="J5" r:id="rId4" location="91259A705" xr:uid="{D4BFF084-7BD3-4060-A554-4F79BEE7B46D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>